--- a/preprocessing data/sex_getjob.xlsx
+++ b/preprocessing data/sex_getjob.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\analytics contest\preprocessing data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B6961A-808A-40E3-A7A7-4BC0B79552C7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10C83572-764F-4AE4-919A-89530B2EBC68}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{A07242E0-927A-40D5-8E62-BF8705750B36}"/>
+    <workbookView xWindow="600" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{A07242E0-927A-40D5-8E62-BF8705750B36}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet10" sheetId="7" r:id="rId1"/>
@@ -424,15 +424,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F974741-7206-483B-8EEF-D0B50414E76A}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D8"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -446,7 +446,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>10333</v>
       </c>
@@ -459,8 +459,29 @@
       <c r="D2">
         <v>738</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G2">
+        <v>10333</v>
+      </c>
+      <c r="H2">
+        <v>10202</v>
+      </c>
+      <c r="I2">
+        <v>17597</v>
+      </c>
+      <c r="J2">
+        <v>17897</v>
+      </c>
+      <c r="K2">
+        <v>18632</v>
+      </c>
+      <c r="L2">
+        <v>76839</v>
+      </c>
+      <c r="M2">
+        <v>44307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>10202</v>
       </c>
@@ -473,8 +494,29 @@
       <c r="D3">
         <v>838</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G3">
+        <v>5071</v>
+      </c>
+      <c r="H3">
+        <v>4995</v>
+      </c>
+      <c r="I3">
+        <v>2517</v>
+      </c>
+      <c r="J3">
+        <v>2456</v>
+      </c>
+      <c r="K3">
+        <v>2567</v>
+      </c>
+      <c r="L3">
+        <v>94120</v>
+      </c>
+      <c r="M3">
+        <v>54404</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>17597</v>
       </c>
@@ -487,8 +529,29 @@
       <c r="D4">
         <v>103961</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G4">
+        <v>3541</v>
+      </c>
+      <c r="H4">
+        <v>3877</v>
+      </c>
+      <c r="I4">
+        <v>199731</v>
+      </c>
+      <c r="J4">
+        <v>195102</v>
+      </c>
+      <c r="K4">
+        <v>195854</v>
+      </c>
+      <c r="L4">
+        <v>232029</v>
+      </c>
+      <c r="M4">
+        <v>133439</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>17897</v>
       </c>
@@ -501,8 +564,29 @@
       <c r="D5">
         <v>101752</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G5">
+        <v>738</v>
+      </c>
+      <c r="H5">
+        <v>838</v>
+      </c>
+      <c r="I5">
+        <v>103961</v>
+      </c>
+      <c r="J5">
+        <v>101752</v>
+      </c>
+      <c r="K5">
+        <v>103904</v>
+      </c>
+      <c r="L5">
+        <v>224137</v>
+      </c>
+      <c r="M5">
+        <v>129145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>18632</v>
       </c>
@@ -516,7 +600,7 @@
         <v>103904</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>76839</v>
       </c>
@@ -530,7 +614,7 @@
         <v>224137</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>44307</v>
       </c>
